--- a/2023校赛/B/B题附件.xlsx
+++ b/2023校赛/B/B题附件.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawei\Downloads\three-whips-MCM\2023校赛\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawei\Downloads\three-whips-MCM\2023校赛\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B99E9A98-C1BE-4D69-8821-13F5BC953EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65CB826-E563-40A2-AF7C-10A00AC9D043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="263" windowWidth="22695" windowHeight="13680"/>
+    <workbookView xWindow="-98" yWindow="263" windowWidth="22695" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B题附件" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">B题附件!$C$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">B题附件!$C$2:$C$701</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">B题附件!$C$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">B题附件!$C$2:$C$701</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -80,7 +74,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4025,11 +4019,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I701"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
